--- a/group/単位認定試験第2回/模範回答.xlsx
+++ b/group/単位認定試験第2回/模範回答.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\今村光汰\Desktop\develop\ohara_uml\group\試験問題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\今村光汰\Desktop\develop\ohara_uml\group\単位認定試験第2回\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6F0EF-D59A-4819-A202-0D7D37374284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6C3A15-82F2-4F7F-9A92-C4FE0F765823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ドメインモデル" sheetId="1" r:id="rId1"/>
@@ -2379,6 +2379,93 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2459,93 +2546,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3060,7 +3060,7 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="74" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -3143,19 +3143,19 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView topLeftCell="C14" zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3177,54 +3177,54 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="37" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="49">
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="78">
         <v>45184</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="50">
+      <c r="N2" s="71"/>
+      <c r="O2" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="53" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="51"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="12" t="s">
         <v>25</v>
       </c>
@@ -3232,195 +3232,215 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="52"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="60"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="68"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="325.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="76" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="78"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:15" ht="387" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:M15"/>
     <mergeCell ref="B11:C11"/>
@@ -3430,26 +3450,6 @@
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3464,19 +3464,19 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3498,54 +3498,54 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="37" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="49">
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="78">
         <v>45184</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="50">
+      <c r="N2" s="71"/>
+      <c r="O2" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="53" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="51"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="12" t="s">
         <v>32</v>
       </c>
@@ -3553,195 +3553,215 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="52"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="60"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="68"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="290.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="76" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="78"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:15" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="79" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="80"/>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:M15"/>
     <mergeCell ref="B11:C11"/>
@@ -3751,26 +3771,6 @@
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3785,19 +3785,19 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3819,54 +3819,54 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="37" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="49">
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="78">
         <v>45184</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="50">
+      <c r="N2" s="71"/>
+      <c r="O2" s="41">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="53" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="51"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
@@ -3874,155 +3874,155 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="52"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="60"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="68"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
-    </row>
-    <row r="13" spans="1:15" ht="253.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="61" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" ht="278" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="76" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="78"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:15" ht="370.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="79" t="s">
@@ -4057,26 +4057,46 @@
       <c r="M15" s="88"/>
     </row>
     <row r="16" spans="1:15" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:M16"/>
     <mergeCell ref="B11:C11"/>
@@ -4086,26 +4106,6 @@
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="D14:M15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4120,19 +4120,19 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4154,54 +4154,54 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="37" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="89">
         <v>45184</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="50">
+      <c r="N2" s="71"/>
+      <c r="O2" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="53" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="51"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
@@ -4209,195 +4209,215 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="52"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="60"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
     </row>
     <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="68"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" spans="1:15" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="76" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="78"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:15" ht="230.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="76" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="73"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:L4"/>
+    <mergeCell ref="M2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:M15"/>
     <mergeCell ref="B11:C11"/>
@@ -4407,26 +4427,6 @@
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:L4"/>
-    <mergeCell ref="M2:N4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4446,15 +4446,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="00b68e39924f37ea7b1a5acaf8857e0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1760b117eeeff4f4de69ce8d4b9089c6" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4655,6 +4646,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C066EC-C8A5-4C62-ADA7-DA0CBBF371F6}">
   <ds:schemaRefs>
@@ -4667,14 +4667,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{047440B8-2702-4984-9F13-7392FE92494B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BE4064D-DD73-48D5-9AC1-0F0DD33A57FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4691,4 +4683,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{047440B8-2702-4984-9F13-7392FE92494B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>